--- a/images/stundenplaene/Stundenpläne_2021.xlsx
+++ b/images/stundenplaene/Stundenpläne_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -156,16 +156,16 @@
 (ab19:30)</t>
   </si>
   <si>
-    <t>Taiji / Qi Gong 
-(ab18:30)</t>
-  </si>
-  <si>
     <t>Wu Shu Kinder
 (17:30 -18:30)</t>
   </si>
   <si>
     <t>Kung Fu Jugendliche Fortgeschrittene
 (18:30 -19:30)</t>
+  </si>
+  <si>
+    <t>Taiji / Qi Gong 
+(ab20:30)</t>
   </si>
 </sst>
 </file>
@@ -723,21 +723,115 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,99 +844,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,74 +871,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,57 +967,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,34 +1296,34 @@
       <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="70">
         <v>0.375</v>
       </c>
       <c r="B2" s="3"/>
@@ -1336,14 +1336,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="20"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="67"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1354,12 +1354,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="68"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="56">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="13"/>
@@ -1377,11 +1377,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -1395,11 +1395,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="56">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -1413,7 +1413,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1429,7 +1429,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="56">
         <v>0.5</v>
       </c>
       <c r="B8" s="13"/>
@@ -1447,7 +1447,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -1463,7 +1463,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="56">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10" s="13"/>
@@ -1481,7 +1481,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1497,7 +1497,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="56">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="13"/>
@@ -1515,7 +1515,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1531,7 +1531,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="68">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -1544,14 +1544,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="69"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1562,12 +1562,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="56">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -1578,16 +1578,16 @@
       <c r="G16" s="19"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1596,52 +1596,52 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="68">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="17"/>
       <c r="M19" s="6"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47">
+      <c r="A20" s="58">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
@@ -1652,16 +1652,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1670,14 +1670,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="56">
         <v>0.79166666666666596</v>
       </c>
       <c r="B22" s="13"/>
@@ -1695,7 +1695,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1711,7 +1711,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="56">
         <v>0.83333333333333304</v>
       </c>
       <c r="B24" s="13"/>
@@ -1720,10 +1720,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="58"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
@@ -1731,15 +1731,15 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
@@ -1747,7 +1747,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="58">
         <v>0.875</v>
       </c>
       <c r="B26" s="5"/>
@@ -1756,8 +1756,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
@@ -1765,7 +1765,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1782,34 +1782,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="H24:I26"/>
     <mergeCell ref="J16:K17"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="J18:K19"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="L14:M18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,34 +1843,34 @@
       <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="56">
         <v>0.45833333333333298</v>
       </c>
       <c r="B2" s="13"/>
@@ -1883,14 +1883,14 @@
       <c r="I2" s="19"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1901,12 +1901,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="75"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="56">
         <v>0.5</v>
       </c>
       <c r="B4" s="13"/>
@@ -1919,14 +1919,14 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="77"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1937,12 +1937,12 @@
       <c r="I5" s="18"/>
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="75"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="78"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="56">
         <v>0.54166666666666696</v>
       </c>
       <c r="B6" s="13"/>
@@ -1955,14 +1955,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1973,12 +1973,12 @@
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="75"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="78"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="56">
         <v>0.58333333333333304</v>
       </c>
       <c r="B8" s="13"/>
@@ -1996,7 +1996,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="17"/>
@@ -2012,7 +2012,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="68">
         <v>0.625</v>
       </c>
       <c r="B10" s="13"/>
@@ -2030,7 +2030,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2046,7 +2046,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="56">
         <v>0.66666666666666596</v>
       </c>
       <c r="B12" s="13"/>
@@ -2064,13 +2064,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="11"/>
@@ -2082,13 +2082,13 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="68">
         <v>0.70833333333333304</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="16"/>
@@ -2100,19 +2100,19 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="64"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="17"/>
@@ -2120,17 +2120,17 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+      <c r="A16" s="58">
         <v>0.75</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="16"/>
       <c r="K16" s="14"/>
       <c r="L16" s="16"/>
@@ -2138,19 +2138,19 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="10"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="99"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="24"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="64"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="17"/>
@@ -2158,17 +2158,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="56">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="14"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="16"/>
@@ -2176,19 +2176,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="63" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="11"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="64"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="17"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -2196,19 +2196,19 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="56">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="16"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -2216,19 +2216,19 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="42"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="74"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="42"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="17"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -2236,17 +2236,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="A22" s="58">
         <v>0.875</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="76"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="16"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="76"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="16"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -2254,15 +2254,15 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="22"/>
@@ -2271,19 +2271,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A20:A21"/>
@@ -2296,12 +2289,19 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="H19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2335,44 +2335,44 @@
       <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="68">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -2382,13 +2382,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="44"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -2398,17 +2398,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="68">
         <v>0.625</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -2418,13 +2418,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -2434,19 +2434,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="68">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -2456,13 +2456,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -2472,19 +2472,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="68">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -2494,13 +2494,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -2510,19 +2510,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+      <c r="A10" s="99">
         <v>0.75</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -2532,13 +2532,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -2548,19 +2548,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="68">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2570,13 +2570,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -2586,11 +2586,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="68">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -2604,7 +2604,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -2638,17 +2638,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -2662,6 +2651,17 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2679,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -2700,37 +2700,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="68">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -2748,17 +2748,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="98"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -2766,7 +2766,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="68">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -2775,8 +2775,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -2784,17 +2784,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="98"/>
+      <c r="H5" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="106"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -2802,7 +2802,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
+      <c r="A6" s="120">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -2811,8 +2811,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -2820,17 +2820,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="98"/>
+      <c r="H7" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="106"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -2838,84 +2838,84 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="120">
+      <c r="A8" s="108">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="116"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2931,6 +2931,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -2942,17 +2953,6 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/images/stundenplaene/Stundenpläne_2021.xlsx
+++ b/images/stundenplaene/Stundenpläne_2021.xlsx
@@ -727,6 +727,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,67 +844,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +859,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,45 +886,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,11 +919,23 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,9 +949,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,26 +973,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,34 +1296,34 @@
       <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
+      <c r="A2" s="40">
         <v>0.375</v>
       </c>
       <c r="B2" s="3"/>
@@ -1336,14 +1336,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="20"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1354,12 +1354,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="50"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="42">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="13"/>
@@ -1377,11 +1377,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -1395,11 +1395,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="42">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -1413,7 +1413,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1429,7 +1429,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="42">
         <v>0.5</v>
       </c>
       <c r="B8" s="13"/>
@@ -1447,7 +1447,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -1463,7 +1463,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="42">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10" s="13"/>
@@ -1481,7 +1481,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1497,7 +1497,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="42">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="13"/>
@@ -1515,7 +1515,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1531,7 +1531,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="47">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -1544,14 +1544,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1562,12 +1562,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="42">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -1578,16 +1578,16 @@
       <c r="G16" s="19"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1596,52 +1596,52 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+      <c r="A18" s="47">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="17"/>
       <c r="M19" s="6"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="49">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
@@ -1652,16 +1652,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1670,14 +1670,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="42">
         <v>0.79166666666666596</v>
       </c>
       <c r="B22" s="13"/>
@@ -1695,7 +1695,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1711,7 +1711,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="42">
         <v>0.83333333333333304</v>
       </c>
       <c r="B24" s="13"/>
@@ -1720,10 +1720,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
@@ -1731,15 +1731,15 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
@@ -1747,7 +1747,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="A26" s="49">
         <v>0.875</v>
       </c>
       <c r="B26" s="5"/>
@@ -1756,8 +1756,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
@@ -1765,7 +1765,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1782,34 +1782,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L14:M18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L14:M18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1828,7 +1828,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,34 +1843,34 @@
       <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="42">
         <v>0.45833333333333298</v>
       </c>
       <c r="B2" s="13"/>
@@ -1883,14 +1883,14 @@
       <c r="I2" s="19"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="77"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1901,12 +1901,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="78"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="42">
         <v>0.5</v>
       </c>
       <c r="B4" s="13"/>
@@ -1919,14 +1919,14 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="77"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1937,12 +1937,12 @@
       <c r="I5" s="18"/>
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="78"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="42">
         <v>0.54166666666666696</v>
       </c>
       <c r="B6" s="13"/>
@@ -1955,14 +1955,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1973,12 +1973,12 @@
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="78"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="42">
         <v>0.58333333333333304</v>
       </c>
       <c r="B8" s="13"/>
@@ -1996,7 +1996,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="17"/>
@@ -2012,7 +2012,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="47">
         <v>0.625</v>
       </c>
       <c r="B10" s="13"/>
@@ -2030,7 +2030,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2046,7 +2046,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="42">
         <v>0.66666666666666596</v>
       </c>
       <c r="B12" s="13"/>
@@ -2064,13 +2064,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="11"/>
@@ -2082,13 +2082,13 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="47">
         <v>0.70833333333333304</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="16"/>
@@ -2100,19 +2100,19 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="17"/>
@@ -2120,17 +2120,17 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="49">
         <v>0.75</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="16"/>
       <c r="K16" s="14"/>
       <c r="L16" s="16"/>
@@ -2138,19 +2138,19 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="10"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="88"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="24"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="17"/>
@@ -2158,17 +2158,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="42">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="14"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="16"/>
@@ -2176,19 +2176,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="44" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="88"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="11"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="45"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="17"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -2196,19 +2196,19 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="42">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="16"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -2216,19 +2216,19 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="74"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="17"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -2236,17 +2236,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="49">
         <v>0.875</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="83"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="16"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="83"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="16"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -2254,15 +2254,15 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="22"/>
@@ -2271,12 +2271,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="D21:E23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A20:A21"/>
@@ -2289,19 +2296,12 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2309,7 +2309,7 @@
     <oddHeader>&amp;L                    
 &amp;G&amp;C&amp;"-,Fett"&amp;9
 &amp;18
-                                                          Stundenplan 2021                                              Rüti</oddHeader>
+                                                          Stundenplan                                              Rüti</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -2335,44 +2335,44 @@
       <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="A2" s="47">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -2382,13 +2382,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -2398,17 +2398,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="47">
         <v>0.625</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -2418,13 +2418,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -2434,19 +2434,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+      <c r="A6" s="47">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -2456,13 +2456,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -2472,19 +2472,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="47">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -2494,13 +2494,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -2510,19 +2510,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99">
+      <c r="A10" s="101">
         <v>0.75</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -2532,13 +2532,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="76"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -2548,19 +2548,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+      <c r="A12" s="47">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="93"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2570,13 +2570,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="76"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -2586,11 +2586,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -2604,7 +2604,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -2638,6 +2638,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -2651,17 +2662,6 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2703,34 +2703,34 @@
       <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="A2" s="47">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -2748,17 +2748,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="106"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -2766,7 +2766,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="47">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -2775,8 +2775,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -2784,17 +2784,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="106"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -2802,7 +2802,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120">
+      <c r="A6" s="103">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -2811,8 +2811,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -2820,17 +2820,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="106"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -2838,39 +2838,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="113">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2885,37 +2885,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2931,17 +2931,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -2953,6 +2942,17 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
